--- a/data/trans_dic/iP13_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP13_R-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>5,69%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,52; 6,26</t>
+          <t>3,41; 8,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,03; 7,57</t>
+          <t>3,16; 7,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 7,04</t>
+          <t>2,61; 7,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,06; 8,34</t>
+          <t>3,82; 10,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,42; 6,49</t>
+          <t>2,75; 7,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,17; 7,66</t>
+          <t>2,67; 7,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,27; 6,24</t>
+          <t>2,72; 7,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,39; 8,7</t>
+          <t>2,65; 7,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,02; 6,01</t>
+          <t>3,54; 6,89</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,72; 6,92</t>
+          <t>3,3; 6,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,77; 5,72</t>
+          <t>3,17; 6,11</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,69; 7,79</t>
+          <t>4,02; 8,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>6,08%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,41; 8,54</t>
+          <t>2,52; 6,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,16; 7,93</t>
+          <t>3,03; 7,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 7,05</t>
+          <t>2,67; 7,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,82; 10,4</t>
+          <t>4,06; 8,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,75; 7,54</t>
+          <t>2,42; 6,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,67; 7,43</t>
+          <t>3,17; 7,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 7,22</t>
+          <t>2,27; 6,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 7,39</t>
+          <t>4,39; 8,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,54; 6,89</t>
+          <t>3,02; 6,01</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,3; 6,68</t>
+          <t>3,72; 6,92</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,17; 6,11</t>
+          <t>2,77; 5,72</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,02; 8,0</t>
+          <t>4,69; 7,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP13_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP13_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>6,07%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,63; 8,49</t>
+          <t>3,83; 11,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,6; 11,69</t>
+          <t>5,05; 12,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,79; 7,31</t>
+          <t>1,91; 7,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,77; 11,73</t>
+          <t>1,72; 10,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,82; 7,36</t>
+          <t>3,47; 11,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,37; 9,67</t>
+          <t>5,27; 12,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,51; 11,38</t>
+          <t>4,21; 11,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,72; 11,19</t>
+          <t>3,24; 13,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,52; 7,01</t>
+          <t>4,65; 9,99</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,84; 9,92</t>
+          <t>6,08; 11,24</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,67; 8,51</t>
+          <t>3,7; 8,24</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,97; 10,36</t>
+          <t>3,3; 10,28</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>6,97%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,41; 8,54</t>
+          <t>2,9; 7,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,16; 7,93</t>
+          <t>4,88; 10,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 7,05</t>
+          <t>2,63; 6,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,82; 10,4</t>
+          <t>5,11; 11,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,75; 7,54</t>
+          <t>2,77; 6,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 7,43</t>
+          <t>2,74; 7,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,72; 7,22</t>
+          <t>4,49; 9,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,65; 7,39</t>
+          <t>3,24; 9,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,54; 6,89</t>
+          <t>3,33; 6,28</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 6,68</t>
+          <t>4,23; 8,01</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,17; 6,11</t>
+          <t>4,1; 7,4</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,02; 8,0</t>
+          <t>5,11; 9,77</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>6,71%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,52; 6,26</t>
+          <t>3,79; 10,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,03; 7,57</t>
+          <t>1,19; 6,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,67; 7,04</t>
+          <t>3,0; 8,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,06; 8,34</t>
+          <t>4,67; 11,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,42; 6,49</t>
+          <t>1,12; 7,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,17; 7,66</t>
+          <t>1,8; 7,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,27; 6,24</t>
+          <t>2,18; 7,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,39; 8,7</t>
+          <t>3,47; 9,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,02; 6,01</t>
+          <t>2,99; 7,31</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,72; 6,92</t>
+          <t>2,0; 5,41</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 5,72</t>
+          <t>3,2; 7,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,69; 7,79</t>
+          <t>4,72; 9,23</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>5,31%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,79; 6,43</t>
+          <t>1,59; 5,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,81; 7,69</t>
+          <t>3,72; 9,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,27; 5,78</t>
+          <t>1,72; 7,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,14; 8,26</t>
+          <t>3,29; 7,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,22; 5,81</t>
+          <t>2,25; 7,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,19; 7,14</t>
+          <t>3,15; 8,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,03; 6,65</t>
+          <t>1,33; 6,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,43; 7,52</t>
+          <t>3,37; 8,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,84; 5,62</t>
+          <t>2,31; 5,37</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,8; 6,85</t>
+          <t>3,9; 7,99</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,04; 5,97</t>
+          <t>2,12; 5,57</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,09; 7,4</t>
+          <t>4,03; 7,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5,0%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6,14%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,42%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6,49%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4,47%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5,44%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,26%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,81%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4,74%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5,8%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4,83%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6,16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3,81; 6,27</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4,8; 7,67</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3,35; 5,82</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5,11; 8,36</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3,4; 5,99</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4,02; 7,02</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4,07; 6,66</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4,3; 7,57</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3,86; 5,71</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4,76; 6,85</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>3,89; 5,82</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5,11; 7,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/iP13_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP13_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,83; 11,58</t>
+          <t>4,14; 11,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,05; 12,91</t>
+          <t>5,14; 13,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 7,82</t>
+          <t>1,89; 8,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,72; 10,87</t>
+          <t>1,77; 11,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,47; 11,67</t>
+          <t>3,78; 11,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,27; 12,87</t>
+          <t>5,39; 12,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,21; 11,55</t>
+          <t>4,23; 11,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,24; 13,38</t>
+          <t>3,3; 13,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,65; 9,99</t>
+          <t>4,83; 10,13</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,08; 11,24</t>
+          <t>5,96; 11,28</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,7; 8,24</t>
+          <t>3,73; 8,32</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,3; 10,28</t>
+          <t>3,38; 10,73</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,9; 7,17</t>
+          <t>2,86; 7,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,88; 10,19</t>
+          <t>4,63; 10,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 6,81</t>
+          <t>2,67; 7,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,11; 11,76</t>
+          <t>5,4; 11,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,77; 6,77</t>
+          <t>2,79; 6,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,74; 7,51</t>
+          <t>2,65; 7,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,49; 9,73</t>
+          <t>4,58; 9,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,24; 9,31</t>
+          <t>3,3; 9,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,33; 6,28</t>
+          <t>3,3; 6,11</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,23; 8,01</t>
+          <t>4,27; 7,83</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,1; 7,4</t>
+          <t>3,95; 7,32</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,11; 9,77</t>
+          <t>5,04; 9,28</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,79; 10,53</t>
+          <t>3,78; 10,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 6,3</t>
+          <t>1,17; 5,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,0; 8,68</t>
+          <t>2,85; 8,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,67; 11,54</t>
+          <t>4,33; 11,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 7,02</t>
+          <t>1,04; 6,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 7,23</t>
+          <t>1,79; 7,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,18; 7,19</t>
+          <t>2,17; 6,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,47; 9,46</t>
+          <t>3,29; 9,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 7,31</t>
+          <t>3,13; 7,51</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 5,41</t>
+          <t>2,03; 5,34</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,2; 7,0</t>
+          <t>3,01; 6,67</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,72; 9,23</t>
+          <t>4,75; 9,07</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,59; 5,91</t>
+          <t>1,58; 5,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,72; 9,96</t>
+          <t>3,73; 9,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,72; 7,09</t>
+          <t>1,85; 7,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,29; 7,92</t>
+          <t>3,25; 7,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,25; 7,1</t>
+          <t>2,19; 7,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,15; 8,89</t>
+          <t>3,09; 8,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 6,28</t>
+          <t>1,36; 6,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,37; 8,31</t>
+          <t>3,45; 8,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,37</t>
+          <t>2,38; 5,43</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,9; 7,99</t>
+          <t>4,0; 8,33</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,12; 5,57</t>
+          <t>2,18; 5,84</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,58</t>
+          <t>3,98; 7,43</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,81; 6,27</t>
+          <t>3,86; 6,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,8; 7,67</t>
+          <t>4,77; 7,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,35; 5,82</t>
+          <t>3,33; 5,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,11; 8,36</t>
+          <t>5,15; 8,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,4; 5,99</t>
+          <t>3,31; 5,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,02; 7,02</t>
+          <t>4,32; 7,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,07; 6,66</t>
+          <t>4,08; 6,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,3; 7,57</t>
+          <t>4,39; 7,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,86; 5,71</t>
+          <t>3,88; 5,6</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,76; 6,85</t>
+          <t>4,82; 6,89</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,89; 5,82</t>
+          <t>3,99; 5,8</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,11; 7,34</t>
+          <t>5,16; 7,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP13_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP13_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>6,97%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8,5%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7,27%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6,9%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>7,1%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>8,16%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>4,02%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>5,06%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>6,97%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>8,5%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>7,27%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,14; 11,48</t>
+          <t>3,54; 11,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,14; 13,01</t>
+          <t>5,42; 13,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,89; 8,08</t>
+          <t>4,29; 11,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 11,85</t>
+          <t>3,06; 12,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,78; 11,42</t>
+          <t>4,14; 11,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,39; 12,68</t>
+          <t>4,66; 12,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,23; 11,87</t>
+          <t>1,83; 7,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,3; 13,42</t>
+          <t>1,9; 11,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,83; 10,13</t>
+          <t>4,68; 10,06</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,96; 11,28</t>
+          <t>5,83; 11,29</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,73; 8,32</t>
+          <t>3,79; 8,58</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,38; 10,73</t>
+          <t>3,08; 10,23</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>4,42%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4,69%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6,81%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5,7%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>4,66%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>7,02%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>4,43%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>7,98%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>4,42%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>4,69%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>6,81%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>6,9%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,86; 7,1</t>
+          <t>2,7; 6,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,63; 10,1</t>
+          <t>2,71; 7,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 7,1</t>
+          <t>4,61; 9,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,4; 11,79</t>
+          <t>3,13; 9,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,79; 6,74</t>
+          <t>2,88; 7,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,65; 7,49</t>
+          <t>4,61; 9,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 9,94</t>
+          <t>2,73; 6,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 9,47</t>
+          <t>5,29; 11,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 6,11</t>
+          <t>3,32; 6,14</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,27; 7,83</t>
+          <t>4,24; 7,66</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,95; 7,32</t>
+          <t>4,19; 7,41</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,04; 9,28</t>
+          <t>5,04; 9,34</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,93%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3,92%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4,0%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6,09%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>6,49%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>2,78%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>5,14%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>7,47%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,93%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>3,92%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>4,0%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>6,8%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,78; 10,7</t>
+          <t>1,06; 6,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 5,93</t>
+          <t>2,1; 7,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,85; 8,42</t>
+          <t>2,1; 7,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,33; 11,22</t>
+          <t>3,66; 9,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 6,5</t>
+          <t>3,82; 10,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,79; 7,05</t>
+          <t>0,85; 5,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,17; 6,99</t>
+          <t>2,85; 8,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,29; 9,43</t>
+          <t>4,57; 10,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,13; 7,51</t>
+          <t>3,07; 7,47</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,03; 5,34</t>
+          <t>2,03; 5,5</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 6,67</t>
+          <t>3,05; 6,94</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,75; 9,07</t>
+          <t>4,82; 9,42</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>4,17%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5,24%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3,24%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5,02%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>3,16%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>6,19%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>3,9%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5,18%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>4,17%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>5,24%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>3,24%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>4,96%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,58; 5,49</t>
+          <t>2,33; 7,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,73; 9,76</t>
+          <t>2,8; 8,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,85; 7,25</t>
+          <t>1,36; 6,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,25; 7,82</t>
+          <t>3,05; 8,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,19; 7,09</t>
+          <t>1,63; 6,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,09; 8,52</t>
+          <t>3,71; 9,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,36; 6,13</t>
+          <t>1,96; 7,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,45; 8,75</t>
+          <t>2,85; 7,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 5,43</t>
+          <t>2,44; 5,3</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,0; 8,33</t>
+          <t>3,9; 8,24</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,18; 5,84</t>
+          <t>2,13; 5,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,98; 7,43</t>
+          <t>3,48; 6,69</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>4,47%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,44%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5,26%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5,63%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>5,0%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>6,14%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>4,42%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>6,49%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>4,47%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>5,44%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>5,26%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>6,02%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,86; 6,51</t>
+          <t>3,22; 5,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,77; 7,72</t>
+          <t>4,19; 7,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,33; 5,83</t>
+          <t>4,03; 6,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,15; 8,38</t>
+          <t>4,24; 7,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,31; 5,88</t>
+          <t>3,79; 6,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,32; 7,23</t>
+          <t>4,81; 7,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,08; 6,87</t>
+          <t>3,27; 5,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,39; 7,63</t>
+          <t>5,04; 8,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,88; 5,6</t>
+          <t>3,84; 5,62</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,82; 6,89</t>
+          <t>4,8; 6,85</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,99; 5,8</t>
+          <t>4,04; 5,97</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,16; 7,36</t>
+          <t>4,98; 7,25</t>
         </is>
       </c>
     </row>
